--- a/Running projects/Gul Ahmed Energy Limited/VO/05- variation order for re route of ducting.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/05- variation order for re route of ducting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11AEFC-2E12-45AF-B5FC-04A5EB289517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB2518-C5E0-44FE-813A-18F4E1AFCCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -812,7 +812,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
